--- a/grabDoll/config/machine.xlsx
+++ b/grabDoll/config/machine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <r>
       <rPr>
@@ -95,7 +95,38 @@
     <t>七号娃娃机</t>
   </si>
   <si>
-    <t>40001,40002,40003,40004,40005</t>
+    <r>
+      <t>UI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面板</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_background</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_background_2</t>
+  </si>
+  <si>
+    <t>40001,40002,40003,40004,40005,40006,40007,40008,40009,40010,40011,40012,40013,40014,40015,40016,40017,40018,40019,40020,40021,40022,40023,40024,40025,40026,40027,40028,40029,40030</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40001,40002,40003,40004,40005,40006,40007,40008,40009,40010,40011,40012,40013,40014,40015,40016,40017,40018,40019,40020,40021,40022,40023,40024,40025,40026,40027,40028,40029,40030</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -103,7 +134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +166,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -485,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -497,12 +535,13 @@
     <col min="2" max="2" width="13.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="9.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="44.125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="188.25" style="7" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="26.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -521,8 +560,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -541,8 +583,11 @@
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>50001</v>
       </c>
@@ -556,13 +601,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>50002</v>
       </c>
@@ -576,13 +624,16 @@
         <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>50003</v>
       </c>
@@ -596,13 +647,16 @@
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>50004</v>
       </c>
@@ -616,13 +670,16 @@
         <v>4</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>50005</v>
       </c>
@@ -636,13 +693,16 @@
         <v>5</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1">
         <v>600</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>50006</v>
       </c>
@@ -656,13 +716,16 @@
         <v>6</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1">
         <v>700</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>50007</v>
       </c>
@@ -676,10 +739,13 @@
         <v>7</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1">
         <v>800</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/grabDoll/config/machine.xlsx
+++ b/grabDoll/config/machine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <r>
       <rPr>
@@ -127,6 +127,38 @@
   </si>
   <si>
     <t>40001,40002,40003,40004,40005,40006,40007,40008,40009,40010,40011,40012,40013,40014,40015,40016,40017,40018,40019,40020,40021,40022,40023,40024,40025,40026,40027,40028,40029,40030</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>island_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>island_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>island_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>island_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>island_5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>island_6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_background_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_background_2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -526,7 +558,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -618,7 +650,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -630,7 +662,7 @@
         <v>300</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -641,7 +673,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -653,7 +685,7 @@
         <v>400</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -664,7 +696,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -687,7 +719,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
@@ -710,7 +742,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
@@ -733,7 +765,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1">
         <v>7</v>

--- a/grabDoll/config/machine.xlsx
+++ b/grabDoll/config/machine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <r>
       <rPr>
@@ -160,6 +160,40 @@
   <si>
     <t>main_background_2</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮皮肤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>catch_skin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>底座皮肤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇杆皮肤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_skin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>joystick_skin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_catch_candy_base</t>
+  </si>
+  <si>
+    <t>btn_catch</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_catch_candy_stick</t>
   </si>
 </sst>
 </file>
@@ -229,7 +263,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -252,6 +286,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -555,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -570,10 +607,13 @@
     <col min="5" max="5" width="188.25" style="7" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="26.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="24.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -595,8 +635,17 @@
       <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="H1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -618,8 +667,17 @@
       <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>50001</v>
       </c>
@@ -641,8 +699,17 @@
       <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>50002</v>
       </c>
@@ -664,8 +731,17 @@
       <c r="G4" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>50003</v>
       </c>
@@ -687,8 +763,17 @@
       <c r="G5" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>50004</v>
       </c>
@@ -710,8 +795,17 @@
       <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>50005</v>
       </c>
@@ -733,8 +827,17 @@
       <c r="G7" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>50006</v>
       </c>
@@ -756,8 +859,17 @@
       <c r="G8" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="H8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>50007</v>
       </c>
@@ -778,6 +890,15 @@
       </c>
       <c r="G9" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/grabDoll/config/machine.xlsx
+++ b/grabDoll/config/machine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <r>
       <rPr>
@@ -194,6 +194,50 @@
   </si>
   <si>
     <t>btn_catch_candy_stick</t>
+  </si>
+  <si>
+    <t>eggGroup</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>放置的娃娃蛋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'10001':5,'10002':5,'10003':5,'10004':5}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40031,40032,40033,40034,40035,40036,40037,40038,40039,40040,40041,40042,40043,40044,40045,40046,40047,40048,40049,40050,40051,40052,40053,40054,40055,40056,40057,40058,40059,40060</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40061,40062,40063,40064,40065,40066,40067,40068,40069,40070,40071,40072,40073,40074,40075,40076,40077,40078,40079,40080,40081,40082,40083,40084,40085,40086,40087,40088,40089,40090</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40091,40092,40093,40094,40095,40096,40097,40098,40099,40100,40101,40102,40103,40104,40105,40106,40107,40108,40109,40110,40111,40112,40113,40114,40115,40116,40117,40118,40119,40120</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40121,40122,40123,40124,40125,40126,40127,40128,40129,40130,40131,40132,40133,40134,40135,40136,40137,40138,40139,40140,40141,40142,40143,40144,40145,40146,40147,40148,40149,40150</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'10005':5,'10006':5,'10007':5,'10008':5}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'10009':5,'10010':5,'10011':5,'10012':5}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'10013':5,'10014':5,'10015':5,'10016':5}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'10017':5,'10018':5,'10019':5,'10020':5}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -592,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -604,16 +648,17 @@
     <col min="2" max="2" width="13.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="9.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="188.25" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="34.25" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="59" style="2" customWidth="1"/>
+    <col min="6" max="6" width="188.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="34.25" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -626,26 +671,29 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -658,26 +706,29 @@
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>50001</v>
       </c>
@@ -690,26 +741,29 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>200</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>50002</v>
       </c>
@@ -722,26 +776,29 @@
       <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="1">
         <v>300</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>50003</v>
       </c>
@@ -754,26 +811,29 @@
       <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="1">
         <v>400</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>50004</v>
       </c>
@@ -786,26 +846,29 @@
       <c r="D6" s="1">
         <v>4</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="1">
         <v>500</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>50005</v>
       </c>
@@ -818,26 +881,29 @@
       <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="1">
         <v>600</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>50006</v>
       </c>
@@ -850,26 +916,29 @@
       <c r="D8" s="1">
         <v>6</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>700</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>50007</v>
       </c>
@@ -882,22 +951,25 @@
       <c r="D9" s="1">
         <v>7</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>800</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>42</v>
       </c>
     </row>

--- a/grabDoll/config/machine.xlsx
+++ b/grabDoll/config/machine.xlsx
@@ -639,7 +639,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>

--- a/grabDoll/config/machine.xlsx
+++ b/grabDoll/config/machine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <r>
       <rPr>
@@ -189,10 +189,6 @@
     <t>btn_catch_candy_base</t>
   </si>
   <si>
-    <t>btn_catch</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>btn_catch_candy_stick</t>
   </si>
   <si>
@@ -237,6 +233,18 @@
   </si>
   <si>
     <t>{'10017':5,'10018':5,'10019':5,'10020':5}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_catch_candy_base</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>catch_a</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>catch_b</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -639,7 +647,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -672,7 +680,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>4</v>
@@ -707,7 +715,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>10</v>
@@ -742,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>24</v>
@@ -754,13 +762,13 @@
         <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -777,10 +785,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="1">
         <v>300</v>
@@ -789,13 +797,13 @@
         <v>32</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -812,10 +820,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="1">
         <v>400</v>
@@ -824,13 +832,13 @@
         <v>33</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -847,10 +855,10 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="1">
         <v>500</v>
@@ -859,13 +867,13 @@
         <v>23</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -882,10 +890,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1">
         <v>600</v>
@@ -894,13 +902,13 @@
         <v>23</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -917,7 +925,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>25</v>
@@ -929,13 +937,13 @@
         <v>23</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
@@ -952,7 +960,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>25</v>
@@ -964,13 +972,13 @@
         <v>23</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/grabDoll/config/machine.xlsx
+++ b/grabDoll/config/machine.xlsx
@@ -11,18 +11,19 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="55">
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>娃娃机</t>
@@ -87,12 +88,6 @@
   </si>
   <si>
     <t>五号娃娃机</t>
-  </si>
-  <si>
-    <t>六号娃娃机</t>
-  </si>
-  <si>
-    <t>七号娃娃机</t>
   </si>
   <si>
     <r>
@@ -126,10 +121,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>40001,40002,40003,40004,40005,40006,40007,40008,40009,40010,40011,40012,40013,40014,40015,40016,40017,40018,40019,40020,40021,40022,40023,40024,40025,40026,40027,40028,40029,40030</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>island_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -146,14 +137,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>island_5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>island_6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>main_background_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -200,10 +183,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{'10001':5,'10002':5,'10003':5,'10004':5}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>40031,40032,40033,40034,40035,40036,40037,40038,40039,40040,40041,40042,40043,40044,40045,40046,40047,40048,40049,40050,40051,40052,40053,40054,40055,40056,40057,40058,40059,40060</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -220,22 +199,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{'10005':5,'10006':5,'10007':5,'10008':5}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'10009':5,'10010':5,'10011':5,'10012':5}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'10013':5,'10014':5,'10015':5,'10016':5}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'10017':5,'10018':5,'10019':5,'10020':5}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>btn_catch_candy_base</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -246,13 +209,44 @@
   <si>
     <t>catch_b</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删':</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>,'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'10001':5,'10002':5,'10003':5,'10004':5,'10005':5,'10006':4,'10007':4,'10008':4,'10009':4,'10010':4,'10011':4,'10012':4,'10013':4,'10014':4,'10015':4,'10016':2,'10017':2,'10018':2,'10019':2,'10020':2,'10021':2,'10022':2,'10023':1,'10024':1,'10025':1,'11001':4,'11002':4,'11003':4,'11004':3,'11005':3}</t>
+  </si>
+  <si>
+    <t>{'10026':5,'10027':5,'10028':5,'10029':5,'10030':5,'10031':4,'10032':4,'10033':4,'10034':4,'10035':4,'10036':4,'10037':4,'10038':4,'10039':4,'10040':4,'10041':2,'10042':2,'10043':2,'10044':2,'10045':2,'10046':2,'10047':2,'10048':1,'10049':1,'10050':1,'11006':4,'11007':4,'11008':4,'11009':3,'11010':3}</t>
+  </si>
+  <si>
+    <t>{'10051':5,'10052':5,'10053':5,'10054':5,'10055':5,'10056':4,'10057':4,'10058':4,'10059':4,'10060':4,'10061':4,'10062':4,'10063':4,'10064':4,'10065':4,'10066':2,'10067':2,'10068':2,'10069':2,'10070':2,'10071':2,'10072':2,'10073':1,'10074':1,'10075':1,'11011':4,'11012':4,'11013':4,'11014':3,'11015':3}</t>
+  </si>
+  <si>
+    <t>{'10076':5,'10077':5,'10078':5,'10079':5,'10080':5,'10081':4,'10082':4,'10083':4,'10084':4,'10085':4,'10086':4,'10087':4,'10088':4,'10089':4,'10090':4,'10091':2,'10092':2,'10093':2,'10094':2,'10095':2,'10096':2,'10097':2,'10098':1,'10099':1,'10100':1,'11016':4,'11017':4,'11018':4,'11019':3,'11020':3}</t>
+  </si>
+  <si>
+    <t>{'10101':5,'10102':5,'10103':5,'10104':5,'10105':5,'10106':4,'10107':4,'10108':4,'10109':4,'10110':4,'10111':4,'10112':4,'10113':4,'10114':4,'10115':4,'10116':2,'10117':2,'10118':2,'10119':2,'10120':2,'10121':2,'10122':2,'10123':1,'10124':1,'10125':1,'11021':4,'11022':4,'11023':4,'11024':3,'11025':3}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,11 +264,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -292,13 +288,45 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -315,7 +343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -342,6 +370,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -656,7 +705,7 @@
     <col min="2" max="2" width="13.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="9.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="59" style="2" customWidth="1"/>
+    <col min="5" max="5" width="158.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="188.25" style="7" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.5" style="1" customWidth="1"/>
@@ -680,7 +729,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>4</v>
@@ -689,16 +738,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -715,7 +764,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>10</v>
@@ -724,16 +773,16 @@
         <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -749,26 +798,26 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>44</v>
+      <c r="E3" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1">
         <v>200</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -779,31 +828,31 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>49</v>
+      <c r="E4" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G4" s="1">
         <v>300</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -814,31 +863,31 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>50</v>
+      <c r="E5" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1">
         <v>400</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -849,31 +898,31 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>51</v>
+      <c r="E6" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1">
         <v>500</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -884,101 +933,31 @@
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>52</v>
+      <c r="E7" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G7" s="1">
         <v>600</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>50006</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="1">
-        <v>700</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>50007</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="1">
-        <v>800</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -990,12 +969,1840 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:DQ5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:121" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="11">
+        <v>10001</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="9">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="11">
+        <v>10002</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="9">
+        <v>5</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="11">
+        <v>10003</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="9">
+        <v>5</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="11">
+        <v>10004</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="11">
+        <v>10005</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="9">
+        <v>5</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="11">
+        <v>10006</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="9">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="11">
+        <v>10007</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="9">
+        <v>4</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" s="11">
+        <v>10008</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF1" s="9">
+        <v>4</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH1" s="11">
+        <v>10009</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ1" s="9">
+        <v>4</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL1" s="11">
+        <v>10010</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN1" s="9">
+        <v>4</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP1" s="11">
+        <v>10011</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR1" s="9">
+        <v>4</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT1" s="11">
+        <v>10012</v>
+      </c>
+      <c r="AU1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV1" s="9">
+        <v>4</v>
+      </c>
+      <c r="AW1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="11">
+        <v>10013</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ1" s="9">
+        <v>4</v>
+      </c>
+      <c r="BA1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB1" s="11">
+        <v>10014</v>
+      </c>
+      <c r="BC1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD1" s="9">
+        <v>4</v>
+      </c>
+      <c r="BE1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BF1" s="11">
+        <v>10015</v>
+      </c>
+      <c r="BG1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="BH1" s="9">
+        <v>4</v>
+      </c>
+      <c r="BI1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BJ1" s="12">
+        <v>10016</v>
+      </c>
+      <c r="BK1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="BL1" s="13">
+        <v>2</v>
+      </c>
+      <c r="BM1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BN1" s="12">
+        <v>10017</v>
+      </c>
+      <c r="BO1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="BP1" s="13">
+        <v>2</v>
+      </c>
+      <c r="BQ1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BR1" s="12">
+        <v>10018</v>
+      </c>
+      <c r="BS1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="BT1" s="13">
+        <v>2</v>
+      </c>
+      <c r="BU1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BV1" s="12">
+        <v>10019</v>
+      </c>
+      <c r="BW1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="BX1" s="13">
+        <v>2</v>
+      </c>
+      <c r="BY1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BZ1" s="12">
+        <v>10020</v>
+      </c>
+      <c r="CA1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="CB1" s="13">
+        <v>2</v>
+      </c>
+      <c r="CC1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="CD1" s="12">
+        <v>10021</v>
+      </c>
+      <c r="CE1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="CF1" s="13">
+        <v>2</v>
+      </c>
+      <c r="CG1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="CH1" s="12">
+        <v>10022</v>
+      </c>
+      <c r="CI1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="CJ1" s="9">
+        <v>2</v>
+      </c>
+      <c r="CK1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="CL1" s="14">
+        <v>10023</v>
+      </c>
+      <c r="CM1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="CN1" s="15">
+        <v>1</v>
+      </c>
+      <c r="CO1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="CP1" s="14">
+        <v>10024</v>
+      </c>
+      <c r="CQ1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="CR1" s="15">
+        <v>1</v>
+      </c>
+      <c r="CS1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT1" s="14">
+        <v>10025</v>
+      </c>
+      <c r="CU1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="CV1" s="9">
+        <v>1</v>
+      </c>
+      <c r="CW1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="CX1" s="11">
+        <v>11001</v>
+      </c>
+      <c r="CY1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="CZ1" s="9">
+        <v>4</v>
+      </c>
+      <c r="DA1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="DB1" s="11">
+        <v>11002</v>
+      </c>
+      <c r="DC1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="DD1" s="9">
+        <v>4</v>
+      </c>
+      <c r="DE1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="DF1" s="11">
+        <v>11003</v>
+      </c>
+      <c r="DG1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="DH1" s="9">
+        <v>4</v>
+      </c>
+      <c r="DI1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="DJ1" s="11">
+        <v>11004</v>
+      </c>
+      <c r="DK1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="DL1" s="9">
+        <v>3</v>
+      </c>
+      <c r="DM1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="DN1" s="11">
+        <v>11005</v>
+      </c>
+      <c r="DO1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="DP1" s="9">
+        <v>3</v>
+      </c>
+      <c r="DQ1" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:121" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="11">
+        <v>10026</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="9">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="11">
+        <v>10027</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="9">
+        <v>5</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="11">
+        <v>10028</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="9">
+        <v>5</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="11">
+        <v>10029</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="11">
+        <v>10030</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="9">
+        <v>5</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="11">
+        <v>10031</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="9">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" s="11">
+        <v>10032</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="9">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" s="11">
+        <v>10033</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF2" s="9">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH2" s="11">
+        <v>10034</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ2" s="9">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL2" s="11">
+        <v>10035</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN2" s="9">
+        <v>4</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP2" s="11">
+        <v>10036</v>
+      </c>
+      <c r="AQ2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR2" s="9">
+        <v>4</v>
+      </c>
+      <c r="AS2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT2" s="11">
+        <v>10037</v>
+      </c>
+      <c r="AU2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV2" s="9">
+        <v>4</v>
+      </c>
+      <c r="AW2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX2" s="11">
+        <v>10038</v>
+      </c>
+      <c r="AY2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ2" s="9">
+        <v>4</v>
+      </c>
+      <c r="BA2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB2" s="11">
+        <v>10039</v>
+      </c>
+      <c r="BC2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD2" s="9">
+        <v>4</v>
+      </c>
+      <c r="BE2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BF2" s="11">
+        <v>10040</v>
+      </c>
+      <c r="BG2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="BH2" s="9">
+        <v>4</v>
+      </c>
+      <c r="BI2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BJ2" s="12">
+        <v>10041</v>
+      </c>
+      <c r="BK2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="BL2" s="13">
+        <v>2</v>
+      </c>
+      <c r="BM2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BN2" s="12">
+        <v>10042</v>
+      </c>
+      <c r="BO2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="BP2" s="13">
+        <v>2</v>
+      </c>
+      <c r="BQ2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BR2" s="12">
+        <v>10043</v>
+      </c>
+      <c r="BS2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="BT2" s="13">
+        <v>2</v>
+      </c>
+      <c r="BU2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BV2" s="12">
+        <v>10044</v>
+      </c>
+      <c r="BW2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="BX2" s="13">
+        <v>2</v>
+      </c>
+      <c r="BY2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BZ2" s="12">
+        <v>10045</v>
+      </c>
+      <c r="CA2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="CB2" s="13">
+        <v>2</v>
+      </c>
+      <c r="CC2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="CD2" s="12">
+        <v>10046</v>
+      </c>
+      <c r="CE2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="CF2" s="13">
+        <v>2</v>
+      </c>
+      <c r="CG2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="CH2" s="12">
+        <v>10047</v>
+      </c>
+      <c r="CI2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="CJ2" s="9">
+        <v>2</v>
+      </c>
+      <c r="CK2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="CL2" s="14">
+        <v>10048</v>
+      </c>
+      <c r="CM2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="CN2" s="15">
+        <v>1</v>
+      </c>
+      <c r="CO2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="CP2" s="14">
+        <v>10049</v>
+      </c>
+      <c r="CQ2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="CR2" s="15">
+        <v>1</v>
+      </c>
+      <c r="CS2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT2" s="14">
+        <v>10050</v>
+      </c>
+      <c r="CU2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="CV2" s="9">
+        <v>1</v>
+      </c>
+      <c r="CW2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="CX2" s="11">
+        <v>11006</v>
+      </c>
+      <c r="CY2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="CZ2" s="9">
+        <v>4</v>
+      </c>
+      <c r="DA2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="DB2" s="11">
+        <v>11007</v>
+      </c>
+      <c r="DC2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="DD2" s="9">
+        <v>4</v>
+      </c>
+      <c r="DE2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="DF2" s="11">
+        <v>11008</v>
+      </c>
+      <c r="DG2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="DH2" s="9">
+        <v>4</v>
+      </c>
+      <c r="DI2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="DJ2" s="11">
+        <v>11009</v>
+      </c>
+      <c r="DK2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="DL2" s="9">
+        <v>3</v>
+      </c>
+      <c r="DM2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="DN2" s="11">
+        <v>11010</v>
+      </c>
+      <c r="DO2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="DP2" s="9">
+        <v>3</v>
+      </c>
+      <c r="DQ2" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:121" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="11">
+        <v>10051</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="9">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="11">
+        <v>10052</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="9">
+        <v>5</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="11">
+        <v>10053</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="9">
+        <v>5</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="11">
+        <v>10054</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3" s="11">
+        <v>10055</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" s="9">
+        <v>5</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="11">
+        <v>10056</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" s="9">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" s="11">
+        <v>10057</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD3" s="11">
+        <v>10058</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF3" s="9">
+        <v>4</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH3" s="11">
+        <v>10059</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ3" s="9">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL3" s="11">
+        <v>10060</v>
+      </c>
+      <c r="AM3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN3" s="9">
+        <v>4</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP3" s="11">
+        <v>10061</v>
+      </c>
+      <c r="AQ3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR3" s="9">
+        <v>4</v>
+      </c>
+      <c r="AS3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT3" s="11">
+        <v>10062</v>
+      </c>
+      <c r="AU3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV3" s="9">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX3" s="11">
+        <v>10063</v>
+      </c>
+      <c r="AY3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ3" s="9">
+        <v>4</v>
+      </c>
+      <c r="BA3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB3" s="11">
+        <v>10064</v>
+      </c>
+      <c r="BC3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD3" s="9">
+        <v>4</v>
+      </c>
+      <c r="BE3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BF3" s="11">
+        <v>10065</v>
+      </c>
+      <c r="BG3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="BH3" s="9">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BJ3" s="12">
+        <v>10066</v>
+      </c>
+      <c r="BK3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="BL3" s="13">
+        <v>2</v>
+      </c>
+      <c r="BM3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BN3" s="12">
+        <v>10067</v>
+      </c>
+      <c r="BO3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="BP3" s="13">
+        <v>2</v>
+      </c>
+      <c r="BQ3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BR3" s="12">
+        <v>10068</v>
+      </c>
+      <c r="BS3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="BT3" s="13">
+        <v>2</v>
+      </c>
+      <c r="BU3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BV3" s="12">
+        <v>10069</v>
+      </c>
+      <c r="BW3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="BX3" s="13">
+        <v>2</v>
+      </c>
+      <c r="BY3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BZ3" s="12">
+        <v>10070</v>
+      </c>
+      <c r="CA3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="CB3" s="13">
+        <v>2</v>
+      </c>
+      <c r="CC3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="CD3" s="12">
+        <v>10071</v>
+      </c>
+      <c r="CE3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="CF3" s="13">
+        <v>2</v>
+      </c>
+      <c r="CG3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="CH3" s="12">
+        <v>10072</v>
+      </c>
+      <c r="CI3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="CJ3" s="9">
+        <v>2</v>
+      </c>
+      <c r="CK3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="CL3" s="14">
+        <v>10073</v>
+      </c>
+      <c r="CM3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="CN3" s="15">
+        <v>1</v>
+      </c>
+      <c r="CO3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="CP3" s="14">
+        <v>10074</v>
+      </c>
+      <c r="CQ3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="CR3" s="15">
+        <v>1</v>
+      </c>
+      <c r="CS3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT3" s="14">
+        <v>10075</v>
+      </c>
+      <c r="CU3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="CV3" s="9">
+        <v>1</v>
+      </c>
+      <c r="CW3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="CX3" s="11">
+        <v>11011</v>
+      </c>
+      <c r="CY3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="CZ3" s="9">
+        <v>4</v>
+      </c>
+      <c r="DA3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="DB3" s="11">
+        <v>11012</v>
+      </c>
+      <c r="DC3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="DD3" s="9">
+        <v>4</v>
+      </c>
+      <c r="DE3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="DF3" s="11">
+        <v>11013</v>
+      </c>
+      <c r="DG3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="DH3" s="9">
+        <v>4</v>
+      </c>
+      <c r="DI3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="DJ3" s="11">
+        <v>11014</v>
+      </c>
+      <c r="DK3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="DL3" s="9">
+        <v>3</v>
+      </c>
+      <c r="DM3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="DN3" s="11">
+        <v>11015</v>
+      </c>
+      <c r="DO3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="DP3" s="9">
+        <v>3</v>
+      </c>
+      <c r="DQ3" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:121" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="11">
+        <v>10076</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="9">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="11">
+        <v>10077</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="9">
+        <v>5</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="11">
+        <v>10078</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="9">
+        <v>5</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="11">
+        <v>10079</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="11">
+        <v>10080</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T4" s="9">
+        <v>5</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" s="11">
+        <v>10081</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="X4" s="9">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z4" s="11">
+        <v>10082</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" s="9">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD4" s="11">
+        <v>10083</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>4</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH4" s="11">
+        <v>10084</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ4" s="9">
+        <v>4</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL4" s="11">
+        <v>10085</v>
+      </c>
+      <c r="AM4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN4" s="9">
+        <v>4</v>
+      </c>
+      <c r="AO4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP4" s="11">
+        <v>10086</v>
+      </c>
+      <c r="AQ4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR4" s="9">
+        <v>4</v>
+      </c>
+      <c r="AS4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT4" s="11">
+        <v>10087</v>
+      </c>
+      <c r="AU4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV4" s="9">
+        <v>4</v>
+      </c>
+      <c r="AW4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX4" s="11">
+        <v>10088</v>
+      </c>
+      <c r="AY4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ4" s="9">
+        <v>4</v>
+      </c>
+      <c r="BA4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB4" s="11">
+        <v>10089</v>
+      </c>
+      <c r="BC4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD4" s="9">
+        <v>4</v>
+      </c>
+      <c r="BE4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BF4" s="11">
+        <v>10090</v>
+      </c>
+      <c r="BG4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="BH4" s="9">
+        <v>4</v>
+      </c>
+      <c r="BI4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BJ4" s="12">
+        <v>10091</v>
+      </c>
+      <c r="BK4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="BL4" s="13">
+        <v>2</v>
+      </c>
+      <c r="BM4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BN4" s="12">
+        <v>10092</v>
+      </c>
+      <c r="BO4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="BP4" s="13">
+        <v>2</v>
+      </c>
+      <c r="BQ4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BR4" s="12">
+        <v>10093</v>
+      </c>
+      <c r="BS4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="BT4" s="13">
+        <v>2</v>
+      </c>
+      <c r="BU4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BV4" s="12">
+        <v>10094</v>
+      </c>
+      <c r="BW4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="BX4" s="13">
+        <v>2</v>
+      </c>
+      <c r="BY4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BZ4" s="12">
+        <v>10095</v>
+      </c>
+      <c r="CA4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="CB4" s="13">
+        <v>2</v>
+      </c>
+      <c r="CC4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="CD4" s="12">
+        <v>10096</v>
+      </c>
+      <c r="CE4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="CF4" s="13">
+        <v>2</v>
+      </c>
+      <c r="CG4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="CH4" s="12">
+        <v>10097</v>
+      </c>
+      <c r="CI4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="CJ4" s="9">
+        <v>2</v>
+      </c>
+      <c r="CK4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="CL4" s="14">
+        <v>10098</v>
+      </c>
+      <c r="CM4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="CN4" s="15">
+        <v>1</v>
+      </c>
+      <c r="CO4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="CP4" s="14">
+        <v>10099</v>
+      </c>
+      <c r="CQ4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="CR4" s="15">
+        <v>1</v>
+      </c>
+      <c r="CS4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT4" s="14">
+        <v>10100</v>
+      </c>
+      <c r="CU4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="CV4" s="9">
+        <v>1</v>
+      </c>
+      <c r="CW4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="CX4" s="11">
+        <v>11016</v>
+      </c>
+      <c r="CY4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="CZ4" s="9">
+        <v>4</v>
+      </c>
+      <c r="DA4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="DB4" s="11">
+        <v>11017</v>
+      </c>
+      <c r="DC4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="DD4" s="9">
+        <v>4</v>
+      </c>
+      <c r="DE4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="DF4" s="11">
+        <v>11018</v>
+      </c>
+      <c r="DG4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="DH4" s="9">
+        <v>4</v>
+      </c>
+      <c r="DI4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="DJ4" s="11">
+        <v>11019</v>
+      </c>
+      <c r="DK4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="DL4" s="9">
+        <v>3</v>
+      </c>
+      <c r="DM4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="DN4" s="11">
+        <v>11020</v>
+      </c>
+      <c r="DO4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="DP4" s="9">
+        <v>3</v>
+      </c>
+      <c r="DQ4" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:121" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="11">
+        <v>10101</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="9">
+        <v>5</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="11">
+        <v>10102</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="9">
+        <v>5</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="11">
+        <v>10103</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="9">
+        <v>5</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="11">
+        <v>10104</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="11">
+        <v>10105</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="T5" s="9">
+        <v>5</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" s="11">
+        <v>10106</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="X5" s="9">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>10107</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD5" s="11">
+        <v>10108</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>10109</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ5" s="9">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL5" s="11">
+        <v>10110</v>
+      </c>
+      <c r="AM5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN5" s="9">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP5" s="11">
+        <v>10111</v>
+      </c>
+      <c r="AQ5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR5" s="9">
+        <v>4</v>
+      </c>
+      <c r="AS5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT5" s="11">
+        <v>10112</v>
+      </c>
+      <c r="AU5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV5" s="9">
+        <v>4</v>
+      </c>
+      <c r="AW5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX5" s="11">
+        <v>10113</v>
+      </c>
+      <c r="AY5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ5" s="9">
+        <v>4</v>
+      </c>
+      <c r="BA5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB5" s="11">
+        <v>10114</v>
+      </c>
+      <c r="BC5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD5" s="9">
+        <v>4</v>
+      </c>
+      <c r="BE5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BF5" s="11">
+        <v>10115</v>
+      </c>
+      <c r="BG5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="BH5" s="9">
+        <v>4</v>
+      </c>
+      <c r="BI5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BJ5" s="12">
+        <v>10116</v>
+      </c>
+      <c r="BK5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="BL5" s="13">
+        <v>2</v>
+      </c>
+      <c r="BM5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BN5" s="12">
+        <v>10117</v>
+      </c>
+      <c r="BO5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="BP5" s="13">
+        <v>2</v>
+      </c>
+      <c r="BQ5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BR5" s="12">
+        <v>10118</v>
+      </c>
+      <c r="BS5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="BT5" s="13">
+        <v>2</v>
+      </c>
+      <c r="BU5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BV5" s="12">
+        <v>10119</v>
+      </c>
+      <c r="BW5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="BX5" s="13">
+        <v>2</v>
+      </c>
+      <c r="BY5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BZ5" s="12">
+        <v>10120</v>
+      </c>
+      <c r="CA5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="CB5" s="13">
+        <v>2</v>
+      </c>
+      <c r="CC5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="CD5" s="12">
+        <v>10121</v>
+      </c>
+      <c r="CE5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="CF5" s="13">
+        <v>2</v>
+      </c>
+      <c r="CG5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="CH5" s="12">
+        <v>10122</v>
+      </c>
+      <c r="CI5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="CJ5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CK5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="CL5" s="14">
+        <v>10123</v>
+      </c>
+      <c r="CM5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="CN5" s="15">
+        <v>1</v>
+      </c>
+      <c r="CO5" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="CP5" s="14">
+        <v>10124</v>
+      </c>
+      <c r="CQ5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="CR5" s="15">
+        <v>1</v>
+      </c>
+      <c r="CS5" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="CT5" s="14">
+        <v>10125</v>
+      </c>
+      <c r="CU5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="CV5" s="9">
+        <v>1</v>
+      </c>
+      <c r="CW5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="CX5" s="11">
+        <v>11021</v>
+      </c>
+      <c r="CY5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="CZ5" s="9">
+        <v>4</v>
+      </c>
+      <c r="DA5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="DB5" s="11">
+        <v>11022</v>
+      </c>
+      <c r="DC5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="DD5" s="9">
+        <v>4</v>
+      </c>
+      <c r="DE5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="DF5" s="11">
+        <v>11023</v>
+      </c>
+      <c r="DG5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="DH5" s="9">
+        <v>4</v>
+      </c>
+      <c r="DI5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="DJ5" s="11">
+        <v>11024</v>
+      </c>
+      <c r="DK5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="DL5" s="9">
+        <v>3</v>
+      </c>
+      <c r="DM5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="DN5" s="11">
+        <v>11025</v>
+      </c>
+      <c r="DO5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="DP5" s="9">
+        <v>3</v>
+      </c>
+      <c r="DQ5" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
